--- a/StructureDefinition-pacio-plf.xlsx
+++ b/StructureDefinition-pacio-plf.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$53</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1979" uniqueCount="426">
   <si>
     <t>Path</t>
   </si>
@@ -381,38 +381,17 @@
     <t>.participation[typeCode=LOC].role</t>
   </si>
   <si>
-    <t>group-functionalStatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://paciowg.github.io/functional-status-ig/StructureDefinition/grouped-functionalStatus}
-</t>
-  </si>
-  <si>
-    <t>Optional Extensions Element</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
-  </si>
-  <si>
-    <t>grouping-order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://paciowg.github.io/functional-status-ig/StructureDefinition/grouping-order}
-</t>
-  </si>
-  <si>
-    <t>grouping-name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://paciowg.github.io/functional-status-ig/StructureDefinition/grouping-name}
-</t>
-  </si>
-  <si>
     <t>device-use</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {https://paciowg.github.io/functional-status-ig/StructureDefinition/device-patient-used}
 </t>
+  </si>
+  <si>
+    <t>Optional Extensions Element</t>
+  </si>
+  <si>
+    <t>Optional Extension Element - found in all resources.</t>
   </si>
   <si>
     <t>Observation.modifierExtension</t>
@@ -1522,7 +1501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO56"/>
+  <dimension ref="A1:AO53"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1531,47 +1510,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.6015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="21.56640625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.19921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="66.26953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="67.91015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="60.515625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.89453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="63.703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.40625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="239.703125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="247.40625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="103.87890625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="37.70703125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="107.01953125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="42.34375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2865,43 +2844,45 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="B12" t="s" s="2">
         <v>120</v>
       </c>
+      <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G12" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="H12" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="I12" t="s" s="2">
         <v>45</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>125</v>
+      </c>
       <c r="O12" t="s" s="2">
         <v>45</v>
       </c>
@@ -2949,7 +2930,7 @@
         <v>45</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>43</v>
@@ -2958,7 +2939,7 @@
         <v>44</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>106</v>
@@ -2982,13 +2963,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>122</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
         <v>45</v>
       </c>
@@ -2997,28 +2976,30 @@
         <v>43</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G13" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I13" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="H13" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J13" t="s" s="2">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
+      <c r="N13" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="O13" t="s" s="2">
         <v>45</v>
       </c>
@@ -3066,7 +3047,7 @@
         <v>45</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>43</v>
@@ -3075,39 +3056,37 @@
         <v>44</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>45</v>
+        <v>132</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>124</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3117,25 +3096,27 @@
         <v>44</v>
       </c>
       <c r="G14" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I14" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="H14" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J14" t="s" s="2">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+      <c r="N14" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O14" t="s" s="2">
         <v>45</v>
       </c>
@@ -3183,7 +3164,7 @@
         <v>45</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>43</v>
@@ -3192,22 +3173,22 @@
         <v>44</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>45</v>
+        <v>143</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>45</v>
@@ -3218,11 +3199,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3235,26 +3216,24 @@
         <v>45</v>
       </c>
       <c r="H15" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="I15" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J15" t="s" s="2">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>45</v>
       </c>
@@ -3302,7 +3281,7 @@
         <v>45</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>43</v>
@@ -3314,19 +3293,19 @@
         <v>45</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>45</v>
+        <v>151</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>45</v>
+        <v>152</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>45</v>
@@ -3337,7 +3316,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3345,32 +3324,34 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="N16" t="s" s="2">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>45</v>
@@ -3395,13 +3376,13 @@
         <v>45</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>45</v>
+        <v>159</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>45</v>
@@ -3419,13 +3400,13 @@
         <v>45</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>45</v>
@@ -3434,19 +3415,19 @@
         <v>67</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>45</v>
+        <v>163</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>45</v>
@@ -3454,11 +3435,11 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>143</v>
+        <v>45</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3474,20 +3455,22 @@
         <v>45</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="N17" t="s" s="2">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>45</v>
@@ -3512,13 +3495,13 @@
         <v>45</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>45</v>
+        <v>173</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>45</v>
+        <v>174</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>45</v>
@@ -3536,7 +3519,7 @@
         <v>45</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>43</v>
@@ -3551,19 +3534,19 @@
         <v>67</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>149</v>
+        <v>45</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>45</v>
+        <v>176</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>45</v>
@@ -3571,18 +3554,18 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>45</v>
@@ -3594,18 +3577,20 @@
         <v>56</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>45</v>
       </c>
@@ -3629,13 +3614,11 @@
         <v>45</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
-        <v>45</v>
+        <v>183</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>45</v>
@@ -3653,13 +3636,13 @@
         <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>45</v>
@@ -3668,27 +3651,27 @@
         <v>67</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>45</v>
+        <v>185</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>45</v>
+        <v>188</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>45</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3705,25 +3688,25 @@
         <v>45</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>75</v>
+        <v>191</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>161</v>
+        <v>192</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>163</v>
+        <v>194</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>45</v>
@@ -3748,13 +3731,13 @@
         <v>45</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>165</v>
+        <v>45</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>167</v>
+        <v>45</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>45</v>
@@ -3772,10 +3755,10 @@
         <v>45</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>55</v>
@@ -3787,19 +3770,19 @@
         <v>67</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>169</v>
+        <v>45</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>45</v>
@@ -3807,7 +3790,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3827,23 +3810,21 @@
         <v>45</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>45</v>
       </c>
@@ -3867,13 +3848,13 @@
         <v>45</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>179</v>
+        <v>45</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>45</v>
@@ -3891,7 +3872,7 @@
         <v>45</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
@@ -3912,13 +3893,13 @@
         <v>45</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>45</v>
+        <v>186</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>45</v>
@@ -3926,15 +3907,15 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>55</v>
@@ -3949,19 +3930,19 @@
         <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>45</v>
@@ -3986,11 +3967,13 @@
         <v>45</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="X21" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y21" t="s" s="2">
-        <v>189</v>
+        <v>45</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>45</v>
@@ -4008,10 +3991,10 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>55</v>
@@ -4023,35 +4006,35 @@
         <v>67</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>191</v>
+        <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>195</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>45</v>
+        <v>218</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>55</v>
@@ -4066,19 +4049,19 @@
         <v>56</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>45</v>
@@ -4127,7 +4110,7 @@
         <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
@@ -4142,19 +4125,19 @@
         <v>67</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
@@ -4162,7 +4145,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4173,7 +4156,7 @@
         <v>43</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>45</v>
@@ -4185,16 +4168,16 @@
         <v>56</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4244,13 +4227,13 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>45</v>
@@ -4265,13 +4248,13 @@
         <v>45</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>192</v>
+        <v>233</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>45</v>
@@ -4279,18 +4262,18 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>213</v>
+        <v>45</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>45</v>
@@ -4302,19 +4285,17 @@
         <v>56</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
@@ -4363,13 +4344,13 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>45</v>
@@ -4378,19 +4359,19 @@
         <v>67</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>45</v>
@@ -4398,11 +4379,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>224</v>
+        <v>45</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4421,19 +4402,19 @@
         <v>56</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>225</v>
+        <v>168</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4458,13 +4439,11 @@
         <v>45</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="X25" s="2"/>
       <c r="Y25" t="s" s="2">
-        <v>45</v>
+        <v>183</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>45</v>
@@ -4482,7 +4461,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4491,33 +4470,33 @@
         <v>55</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>45</v>
+        <v>250</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>67</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>230</v>
+        <v>45</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>45</v>
+        <v>251</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>233</v>
+        <v>45</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>45</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4537,21 +4516,23 @@
         <v>45</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>235</v>
+        <v>168</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
       </c>
@@ -4575,13 +4556,13 @@
         <v>45</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>45</v>
+        <v>260</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>45</v>
+        <v>261</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>45</v>
+        <v>262</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>45</v>
@@ -4599,7 +4580,7 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4608,7 +4589,7 @@
         <v>55</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>45</v>
+        <v>263</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>67</v>
@@ -4620,13 +4601,13 @@
         <v>45</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>239</v>
+        <v>98</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>241</v>
+        <v>45</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>45</v>
@@ -4634,15 +4615,15 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>45</v>
+        <v>266</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>44</v>
@@ -4654,20 +4635,22 @@
         <v>45</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>243</v>
+        <v>168</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="N27" t="s" s="2">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>45</v>
@@ -4692,13 +4675,13 @@
         <v>45</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>45</v>
+        <v>260</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>45</v>
+        <v>271</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>45</v>
+        <v>272</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>45</v>
@@ -4716,7 +4699,7 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
@@ -4731,27 +4714,27 @@
         <v>67</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>247</v>
+        <v>45</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>45</v>
+        <v>273</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>250</v>
+        <v>45</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>45</v>
+        <v>276</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4762,7 +4745,7 @@
         <v>43</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>45</v>
@@ -4771,22 +4754,22 @@
         <v>45</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>174</v>
+        <v>278</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>45</v>
@@ -4811,11 +4794,13 @@
         <v>45</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="X28" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y28" t="s" s="2">
-        <v>189</v>
+        <v>45</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>45</v>
@@ -4833,16 +4818,16 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>256</v>
+        <v>45</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>67</v>
@@ -4851,24 +4836,24 @@
         <v>45</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>257</v>
+        <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>260</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4891,20 +4876,18 @@
         <v>45</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>45</v>
       </c>
@@ -4928,13 +4911,13 @@
         <v>45</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>45</v>
@@ -4952,7 +4935,7 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -4961,7 +4944,7 @@
         <v>55</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>269</v>
+        <v>45</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>67</v>
@@ -4970,35 +4953,35 @@
         <v>45</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>45</v>
+        <v>292</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>98</v>
+        <v>293</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>45</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>272</v>
+        <v>45</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>45</v>
@@ -5010,19 +4993,19 @@
         <v>45</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>45</v>
@@ -5047,13 +5030,13 @@
         <v>45</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>45</v>
@@ -5071,13 +5054,13 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>45</v>
@@ -5089,24 +5072,24 @@
         <v>45</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>279</v>
+        <v>45</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>280</v>
+        <v>303</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>281</v>
+        <v>304</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>282</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5117,7 +5100,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>45</v>
@@ -5129,20 +5112,18 @@
         <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>45</v>
       </c>
@@ -5190,13 +5171,13 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>45</v>
@@ -5208,24 +5189,24 @@
         <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>45</v>
+        <v>310</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>289</v>
+        <v>311</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>45</v>
+        <v>313</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>291</v>
+        <v>314</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5248,16 +5229,16 @@
         <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>174</v>
+        <v>315</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>294</v>
+        <v>318</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5283,13 +5264,13 @@
         <v>45</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>295</v>
+        <v>45</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>296</v>
+        <v>45</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>297</v>
+        <v>45</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>45</v>
@@ -5307,7 +5288,7 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>291</v>
+        <v>314</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5325,24 +5306,24 @@
         <v>45</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>298</v>
+        <v>319</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>299</v>
+        <v>320</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>301</v>
+        <v>322</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5353,7 +5334,7 @@
         <v>43</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>45</v>
@@ -5365,19 +5346,19 @@
         <v>45</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>174</v>
+        <v>324</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>45</v>
@@ -5402,13 +5383,13 @@
         <v>45</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>295</v>
+        <v>45</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>307</v>
+        <v>45</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>308</v>
+        <v>45</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>45</v>
@@ -5426,19 +5407,19 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>67</v>
+        <v>329</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>45</v>
@@ -5447,10 +5428,10 @@
         <v>45</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
@@ -5461,7 +5442,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5484,17 +5465,15 @@
         <v>45</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>312</v>
+        <v>57</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>45</v>
@@ -5543,7 +5522,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>311</v>
+        <v>335</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5555,41 +5534,41 @@
         <v>45</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>316</v>
+        <v>45</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>317</v>
+        <v>45</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>319</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>45</v>
@@ -5601,16 +5580,16 @@
         <v>45</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>321</v>
+        <v>100</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>324</v>
+        <v>124</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5660,46 +5639,46 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>325</v>
+        <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>326</v>
+        <v>45</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>328</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>45</v>
+        <v>342</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5712,25 +5691,25 @@
         <v>45</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>330</v>
+        <v>100</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>333</v>
+        <v>124</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>334</v>
+        <v>125</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>45</v>
@@ -5779,7 +5758,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5791,7 +5770,7 @@
         <v>45</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>335</v>
+        <v>106</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>45</v>
@@ -5800,10 +5779,10 @@
         <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>336</v>
+        <v>45</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>337</v>
+        <v>98</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
@@ -5814,7 +5793,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5837,13 +5816,13 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>57</v>
+        <v>347</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5894,7 +5873,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -5903,10 +5882,10 @@
         <v>55</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>45</v>
+        <v>350</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>45</v>
@@ -5915,10 +5894,10 @@
         <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>45</v>
+        <v>351</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -5929,18 +5908,18 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>45</v>
@@ -5952,17 +5931,15 @@
         <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>100</v>
+        <v>347</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -6011,19 +5988,19 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>45</v>
+        <v>350</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>45</v>
@@ -6032,10 +6009,10 @@
         <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>45</v>
+        <v>351</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -6046,42 +6023,42 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>348</v>
+        <v>45</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>130</v>
+        <v>360</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>131</v>
+        <v>361</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6106,13 +6083,13 @@
         <v>45</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>45</v>
+        <v>362</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>45</v>
+        <v>363</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>45</v>
@@ -6130,31 +6107,31 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>45</v>
+        <v>364</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>45</v>
+        <v>365</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>98</v>
+        <v>275</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6165,7 +6142,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6176,7 +6153,7 @@
         <v>43</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>45</v>
@@ -6188,16 +6165,20 @@
         <v>45</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>353</v>
+        <v>168</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
       </c>
@@ -6221,13 +6202,13 @@
         <v>45</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>45</v>
+        <v>289</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>45</v>
+        <v>371</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>45</v>
+        <v>372</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>45</v>
@@ -6245,16 +6226,16 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>356</v>
+        <v>45</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>67</v>
@@ -6263,13 +6244,13 @@
         <v>45</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>45</v>
+        <v>364</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>358</v>
+        <v>275</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6280,7 +6261,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6303,16 +6284,18 @@
         <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>353</v>
+        <v>374</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+      <c r="N41" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>45</v>
       </c>
@@ -6360,7 +6343,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6369,7 +6352,7 @@
         <v>55</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>356</v>
+        <v>45</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>67</v>
@@ -6381,10 +6364,10 @@
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>357</v>
+        <v>45</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
@@ -6395,7 +6378,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6418,20 +6401,16 @@
         <v>45</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>174</v>
+        <v>57</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>45</v>
       </c>
@@ -6455,13 +6434,13 @@
         <v>45</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>368</v>
+        <v>45</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>369</v>
+        <v>45</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>45</v>
@@ -6479,7 +6458,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6497,13 +6476,13 @@
         <v>45</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>370</v>
+        <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>281</v>
+        <v>382</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -6514,7 +6493,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6534,23 +6513,21 @@
         <v>45</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>174</v>
+        <v>384</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>45</v>
       </c>
@@ -6574,13 +6551,13 @@
         <v>45</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>295</v>
+        <v>45</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>377</v>
+        <v>45</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>378</v>
+        <v>45</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>45</v>
@@ -6598,7 +6575,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6616,13 +6593,13 @@
         <v>45</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>370</v>
+        <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>281</v>
+        <v>389</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6633,7 +6610,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6644,7 +6621,7 @@
         <v>43</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>45</v>
@@ -6653,21 +6630,21 @@
         <v>45</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" t="s" s="2">
-        <v>383</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>45</v>
       </c>
@@ -6715,13 +6692,13 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>45</v>
@@ -6736,10 +6713,10 @@
         <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>45</v>
+        <v>388</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -6750,7 +6727,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6761,7 +6738,7 @@
         <v>43</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>45</v>
@@ -6770,19 +6747,23 @@
         <v>45</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>57</v>
+        <v>324</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>400</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
       </c>
@@ -6830,13 +6811,13 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>45</v>
@@ -6851,10 +6832,10 @@
         <v>45</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>357</v>
+        <v>401</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6865,7 +6846,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6876,7 +6857,7 @@
         <v>43</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>45</v>
@@ -6885,20 +6866,18 @@
         <v>45</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>390</v>
+        <v>57</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>391</v>
+        <v>333</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>45</v>
@@ -6947,19 +6926,19 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>389</v>
+        <v>335</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>45</v>
@@ -6968,10 +6947,10 @@
         <v>45</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>394</v>
+        <v>45</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>395</v>
+        <v>336</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -6982,11 +6961,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7002,19 +6981,19 @@
         <v>45</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>397</v>
+        <v>100</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>398</v>
+        <v>338</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>399</v>
+        <v>339</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>400</v>
+        <v>124</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7064,7 +7043,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>396</v>
+        <v>340</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7076,7 +7055,7 @@
         <v>45</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>45</v>
@@ -7085,10 +7064,10 @@
         <v>45</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>394</v>
+        <v>45</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>401</v>
+        <v>336</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
@@ -7099,11 +7078,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>45</v>
+        <v>342</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7116,25 +7095,25 @@
         <v>45</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>330</v>
+        <v>100</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>403</v>
+        <v>343</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>404</v>
+        <v>344</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>405</v>
+        <v>124</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>406</v>
+        <v>125</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7183,7 +7162,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>402</v>
+        <v>345</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7195,7 +7174,7 @@
         <v>45</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>45</v>
@@ -7204,10 +7183,10 @@
         <v>45</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>407</v>
+        <v>45</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>408</v>
+        <v>98</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
@@ -7218,7 +7197,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7226,7 +7205,7 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>55</v>
@@ -7238,19 +7217,23 @@
         <v>45</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>57</v>
+        <v>168</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>339</v>
+        <v>407</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
       </c>
@@ -7274,13 +7257,13 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>45</v>
+        <v>289</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>45</v>
+        <v>410</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>45</v>
+        <v>411</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
@@ -7298,10 +7281,10 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>341</v>
+        <v>406</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>55</v>
@@ -7310,22 +7293,22 @@
         <v>45</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>45</v>
+        <v>412</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>45</v>
+        <v>186</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>342</v>
+        <v>187</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>45</v>
+        <v>188</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>45</v>
@@ -7333,18 +7316,18 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>45</v>
@@ -7353,21 +7336,23 @@
         <v>45</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>100</v>
+        <v>414</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>344</v>
+        <v>415</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>345</v>
+        <v>247</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>416</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
       </c>
@@ -7415,77 +7400,77 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>346</v>
+        <v>413</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>45</v>
+        <v>252</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>342</v>
+        <v>253</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>45</v>
+        <v>254</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>348</v>
+        <v>45</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>349</v>
+        <v>419</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>350</v>
+        <v>420</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>130</v>
+        <v>421</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>131</v>
+        <v>259</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -7510,13 +7495,13 @@
         <v>45</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>45</v>
+        <v>260</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>45</v>
+        <v>261</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>45</v>
+        <v>262</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>45</v>
@@ -7534,19 +7519,19 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>351</v>
+        <v>418</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>45</v>
+        <v>263</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>45</v>
@@ -7555,10 +7540,10 @@
         <v>45</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>98</v>
+        <v>264</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
@@ -7569,18 +7554,18 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>45</v>
+        <v>266</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>45</v>
@@ -7589,22 +7574,22 @@
         <v>45</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>413</v>
+        <v>267</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>414</v>
+        <v>268</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>415</v>
+        <v>269</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>188</v>
+        <v>270</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>45</v>
@@ -7629,13 +7614,13 @@
         <v>45</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>295</v>
+        <v>260</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>416</v>
+        <v>271</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>417</v>
+        <v>272</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>45</v>
@@ -7653,13 +7638,13 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>45</v>
@@ -7671,24 +7656,24 @@
         <v>45</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>418</v>
+        <v>273</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>192</v>
+        <v>274</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>193</v>
+        <v>275</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>194</v>
+        <v>45</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>45</v>
+        <v>276</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7699,7 +7684,7 @@
         <v>43</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>45</v>
@@ -7708,22 +7693,22 @@
         <v>45</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>253</v>
+        <v>425</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>422</v>
+        <v>327</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>255</v>
+        <v>328</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>45</v>
@@ -7772,13 +7757,13 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>45</v>
@@ -7790,380 +7775,23 @@
         <v>45</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>423</v>
+        <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>258</v>
+        <v>330</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>259</v>
+        <v>331</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="54" hidden="true">
-      <c r="A54" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F54" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P54" s="2"/>
-      <c r="Q54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="55" hidden="true">
-      <c r="A55" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="D55" s="2"/>
-      <c r="E55" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P55" s="2"/>
-      <c r="Q55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="56" hidden="true">
-      <c r="A56" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="E56" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P56" s="2"/>
-      <c r="Q56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO56" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO56">
+  <autoFilter ref="A1:AO53">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8173,7 +7801,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI55">
+  <conditionalFormatting sqref="A2:AI52">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-pacio-plf.xlsx
+++ b/StructureDefinition-pacio-plf.xlsx
@@ -381,10 +381,10 @@
     <t>.participation[typeCode=LOC].role</t>
   </si>
   <si>
-    <t>device-use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://paciowg.github.io/functional-status-ig/StructureDefinition/device-patient-used}
+    <t>assistance-required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://paciowg.github.io/functional-status-ig/StructureDefinition/assistance-required}
 </t>
   </si>
   <si>
@@ -705,8 +705,8 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime
-</t>
+    <t>dateTime
+Period</t>
   </si>
   <si>
     <t>Clinically relevant time/time-period for observation</t>
@@ -1510,47 +1510,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.19921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.6015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="18.515625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="67.91015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="66.26953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="63.703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.40625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="60.515625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.89453125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="247.40625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="239.703125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="107.01953125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="103.87890625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="37.70703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2742,7 +2742,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>56</v>

--- a/StructureDefinition-pacio-plf.xlsx
+++ b/StructureDefinition-pacio-plf.xlsx
@@ -1510,47 +1510,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.6015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="18.515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="19.10546875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="66.26953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="67.91015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="60.515625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.89453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="63.703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.40625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="239.703125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="247.40625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="103.87890625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="37.70703125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="107.01953125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="42.34375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-pacio-plf.xlsx
+++ b/StructureDefinition-pacio-plf.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$57</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1979" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2129" uniqueCount="448">
   <si>
     <t>Path</t>
   </si>
@@ -592,6 +592,15 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://loinc.org"/&gt;
+    &lt;code value="10158-4"/&gt;
+    &lt;display value="History of Functional status Narrative"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
     <t>http://loinc.org</t>
   </si>
   <si>
@@ -611,6 +620,91 @@
   </si>
   <si>
     <t>116680003 |Is a|</t>
+  </si>
+  <si>
+    <t>Observation.code.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Observation.code.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>Observation.code.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>History of Functional status Narrative</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>Observation.subject</t>
@@ -789,6 +883,10 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
+    <t>Quantity
+CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
+  </si>
+  <si>
     <t>Actual result</t>
   </si>
   <si>
@@ -1060,28 +1158,7 @@
     <t>Observation.referenceRange.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Observation.referenceRange.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Observation.referenceRange.modifierExtension</t>
@@ -1315,10 +1392,6 @@
   </si>
   <si>
     <t>Observation.component.value[x]</t>
-  </si>
-  <si>
-    <t>Quantity
-CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
     <t>Actual component result</t>
@@ -1501,7 +1574,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO53"/>
+  <dimension ref="A1:AO57"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1510,47 +1583,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="19.10546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.6015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="18.515625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="67.91015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="66.26953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="63.703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.40625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="60.515625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.89453125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="247.40625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="239.703125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="107.01953125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="103.87890625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="37.70703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3599,7 +3672,7 @@
         <v>45</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>45</v>
+        <v>183</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>45</v>
@@ -3618,7 +3691,7 @@
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>45</v>
@@ -3651,27 +3724,27 @@
         <v>67</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3679,7 +3752,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>55</v>
@@ -3691,10 +3764,10 @@
         <v>45</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>191</v>
+        <v>57</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>192</v>
@@ -3702,12 +3775,8 @@
       <c r="L19" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="M19" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>195</v>
-      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>45</v>
       </c>
@@ -3755,7 +3824,7 @@
         <v>45</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
@@ -3767,22 +3836,22 @@
         <v>45</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>196</v>
+        <v>45</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>197</v>
+        <v>45</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>199</v>
+        <v>45</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>45</v>
@@ -3790,11 +3859,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3810,19 +3879,19 @@
         <v>45</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>201</v>
+        <v>100</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>204</v>
+        <v>124</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3860,16 +3929,16 @@
         <v>45</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>45</v>
+        <v>199</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>200</v>
@@ -3884,7 +3953,7 @@
         <v>45</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>45</v>
@@ -3893,13 +3962,13 @@
         <v>45</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>186</v>
+        <v>45</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>199</v>
+        <v>45</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>45</v>
@@ -3907,18 +3976,18 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>207</v>
+        <v>45</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>45</v>
@@ -3930,19 +3999,19 @@
         <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>45</v>
@@ -3991,13 +4060,13 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>45</v>
@@ -4006,19 +4075,19 @@
         <v>67</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>213</v>
+        <v>45</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>216</v>
+        <v>45</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>45</v>
@@ -4026,11 +4095,11 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>218</v>
+        <v>45</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4049,19 +4118,19 @@
         <v>56</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>219</v>
+        <v>57</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>45</v>
@@ -4071,7 +4140,7 @@
         <v>45</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>45</v>
+        <v>215</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>45</v>
@@ -4110,7 +4179,7 @@
         <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
@@ -4125,19 +4194,19 @@
         <v>67</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>224</v>
+        <v>45</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>227</v>
+        <v>45</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
@@ -4145,7 +4214,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4153,7 +4222,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>55</v>
@@ -4168,18 +4237,20 @@
         <v>56</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>45</v>
       </c>
@@ -4227,7 +4298,7 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
@@ -4242,19 +4313,19 @@
         <v>67</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>45</v>
+        <v>225</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>45</v>
@@ -4262,7 +4333,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4270,7 +4341,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>44</v>
@@ -4285,18 +4356,18 @@
         <v>56</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>45</v>
       </c>
@@ -4344,7 +4415,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4359,19 +4430,19 @@
         <v>67</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>241</v>
+        <v>45</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>242</v>
+        <v>187</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>45</v>
@@ -4379,11 +4450,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>45</v>
+        <v>236</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4402,19 +4473,19 @@
         <v>56</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>168</v>
+        <v>237</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4439,11 +4510,13 @@
         <v>45</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="X25" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y25" t="s" s="2">
-        <v>183</v>
+        <v>45</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>45</v>
@@ -4461,7 +4534,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4470,37 +4543,37 @@
         <v>55</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>250</v>
+        <v>45</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>67</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>45</v>
+        <v>242</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>251</v>
+        <v>45</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>45</v>
+        <v>245</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>254</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>45</v>
+        <v>247</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4516,22 +4589,22 @@
         <v>45</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>168</v>
+        <v>248</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4556,13 +4629,13 @@
         <v>45</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>260</v>
+        <v>45</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>261</v>
+        <v>45</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>45</v>
@@ -4580,7 +4653,7 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4589,25 +4662,25 @@
         <v>55</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>263</v>
+        <v>45</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>67</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>45</v>
+        <v>253</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>98</v>
+        <v>254</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>45</v>
+        <v>256</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>45</v>
@@ -4615,18 +4688,18 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>266</v>
+        <v>45</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>45</v>
@@ -4635,23 +4708,21 @@
         <v>45</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>270</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>45</v>
       </c>
@@ -4675,13 +4746,13 @@
         <v>45</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>260</v>
+        <v>45</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>271</v>
+        <v>45</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>272</v>
+        <v>45</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>45</v>
@@ -4699,13 +4770,13 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>45</v>
@@ -4717,24 +4788,24 @@
         <v>45</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>273</v>
+        <v>45</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>45</v>
+        <v>264</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>276</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4742,7 +4813,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>44</v>
@@ -4754,22 +4825,20 @@
         <v>45</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>45</v>
@@ -4818,7 +4887,7 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4833,19 +4902,19 @@
         <v>67</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>45</v>
+        <v>270</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>45</v>
+        <v>273</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>45</v>
@@ -4853,7 +4922,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4873,21 +4942,23 @@
         <v>45</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>168</v>
+        <v>275</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>45</v>
       </c>
@@ -4911,13 +4982,13 @@
         <v>45</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>289</v>
+        <v>45</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>290</v>
+        <v>45</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>291</v>
+        <v>45</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>45</v>
@@ -4935,7 +5006,7 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -4944,7 +5015,7 @@
         <v>55</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>45</v>
+        <v>280</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>67</v>
@@ -4953,24 +5024,24 @@
         <v>45</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>295</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4996,16 +5067,16 @@
         <v>168</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>45</v>
@@ -5030,13 +5101,13 @@
         <v>45</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>45</v>
@@ -5054,7 +5125,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5063,7 +5134,7 @@
         <v>55</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>45</v>
+        <v>293</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>67</v>
@@ -5075,10 +5146,10 @@
         <v>45</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>303</v>
+        <v>98</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>45</v>
@@ -5089,18 +5160,18 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>45</v>
+        <v>296</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>45</v>
@@ -5112,18 +5183,20 @@
         <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>306</v>
+        <v>168</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>45</v>
       </c>
@@ -5147,13 +5220,13 @@
         <v>45</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>45</v>
+        <v>290</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>45</v>
+        <v>301</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>45</v>
+        <v>302</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>45</v>
@@ -5171,13 +5244,13 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>45</v>
@@ -5189,24 +5262,24 @@
         <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5217,7 +5290,7 @@
         <v>43</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>45</v>
@@ -5229,18 +5302,20 @@
         <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
       </c>
@@ -5288,13 +5363,13 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>45</v>
@@ -5306,24 +5381,24 @@
         <v>45</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>319</v>
+        <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>322</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5334,7 +5409,7 @@
         <v>43</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>45</v>
@@ -5346,20 +5421,18 @@
         <v>45</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>324</v>
+        <v>168</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>45</v>
       </c>
@@ -5383,13 +5456,13 @@
         <v>45</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>45</v>
+        <v>319</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>45</v>
+        <v>320</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>45</v>
+        <v>321</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>45</v>
@@ -5407,42 +5480,42 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="AF33" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>330</v>
-      </c>
       <c r="AM33" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>45</v>
+        <v>325</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5465,16 +5538,20 @@
         <v>45</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>57</v>
+        <v>168</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>45</v>
       </c>
@@ -5498,13 +5575,13 @@
         <v>45</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>45</v>
+        <v>319</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>45</v>
+        <v>331</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>45</v>
+        <v>332</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>45</v>
@@ -5522,7 +5599,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5534,7 +5611,7 @@
         <v>45</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>45</v>
@@ -5543,10 +5620,10 @@
         <v>45</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>45</v>
+        <v>333</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
@@ -5557,18 +5634,18 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>45</v>
@@ -5580,16 +5657,16 @@
         <v>45</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>100</v>
+        <v>336</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5639,78 +5716,76 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AF35" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AL35" t="s" s="2">
-        <v>45</v>
+        <v>341</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>45</v>
+        <v>343</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>342</v>
+        <v>45</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>100</v>
+        <v>345</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>125</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>45</v>
       </c>
@@ -5758,42 +5833,42 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>45</v>
+        <v>349</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>45</v>
+        <v>350</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>98</v>
+        <v>351</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>45</v>
+        <v>352</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5804,7 +5879,7 @@
         <v>43</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>45</v>
@@ -5816,16 +5891,20 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
       </c>
@@ -5873,19 +5952,19 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>350</v>
+        <v>45</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>67</v>
+        <v>359</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>45</v>
@@ -5894,10 +5973,10 @@
         <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -5908,7 +5987,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5931,13 +6010,13 @@
         <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>347</v>
+        <v>57</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>354</v>
+        <v>192</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>355</v>
+        <v>193</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5988,7 +6067,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>353</v>
+        <v>194</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -5997,10 +6076,10 @@
         <v>55</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>350</v>
+        <v>45</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>45</v>
@@ -6009,10 +6088,10 @@
         <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>351</v>
+        <v>45</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>356</v>
+        <v>195</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -6023,18 +6102,18 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>45</v>
@@ -6046,20 +6125,18 @@
         <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>168</v>
+        <v>100</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>358</v>
+        <v>197</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>359</v>
+        <v>198</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>45</v>
       </c>
@@ -6083,13 +6160,13 @@
         <v>45</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>362</v>
+        <v>45</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>363</v>
+        <v>45</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>45</v>
@@ -6107,31 +6184,31 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>357</v>
+        <v>200</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>364</v>
+        <v>45</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>365</v>
+        <v>45</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>275</v>
+        <v>195</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6142,11 +6219,11 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>45</v>
+        <v>365</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6159,25 +6236,25 @@
         <v>45</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>168</v>
+        <v>100</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="L40" t="s" s="2">
-        <v>368</v>
-      </c>
       <c r="M40" t="s" s="2">
-        <v>369</v>
+        <v>124</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>370</v>
+        <v>125</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
@@ -6202,13 +6279,13 @@
         <v>45</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>289</v>
+        <v>45</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>371</v>
+        <v>45</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>372</v>
+        <v>45</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>45</v>
@@ -6226,7 +6303,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6238,19 +6315,19 @@
         <v>45</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>364</v>
+        <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>365</v>
+        <v>45</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>275</v>
+        <v>98</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6261,7 +6338,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6284,18 +6361,16 @@
         <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="M41" s="2"/>
-      <c r="N41" t="s" s="2">
-        <v>377</v>
-      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>45</v>
       </c>
@@ -6343,7 +6418,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6352,7 +6427,7 @@
         <v>55</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>45</v>
+        <v>373</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>67</v>
@@ -6364,10 +6439,10 @@
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>45</v>
+        <v>374</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
@@ -6378,7 +6453,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6401,13 +6476,13 @@
         <v>45</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>57</v>
+        <v>370</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6458,7 +6533,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6467,7 +6542,7 @@
         <v>55</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>45</v>
+        <v>373</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>67</v>
@@ -6479,10 +6554,10 @@
         <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -6493,7 +6568,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6504,7 +6579,7 @@
         <v>43</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>45</v>
@@ -6513,21 +6588,23 @@
         <v>45</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="N43" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="K43" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>45</v>
       </c>
@@ -6551,13 +6628,13 @@
         <v>45</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>45</v>
+        <v>385</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>45</v>
+        <v>386</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>45</v>
@@ -6575,13 +6652,13 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>45</v>
@@ -6593,13 +6670,13 @@
         <v>45</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>45</v>
+        <v>387</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>388</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>389</v>
+        <v>305</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6610,7 +6687,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6630,21 +6707,23 @@
         <v>45</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="M44" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>45</v>
       </c>
@@ -6668,13 +6747,13 @@
         <v>45</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>45</v>
+        <v>319</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>45</v>
+        <v>394</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>45</v>
+        <v>395</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>45</v>
@@ -6692,7 +6771,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6710,13 +6789,13 @@
         <v>45</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>45</v>
+        <v>387</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>388</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>395</v>
+        <v>305</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -6738,7 +6817,7 @@
         <v>43</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>45</v>
@@ -6747,20 +6826,18 @@
         <v>45</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>324</v>
+        <v>397</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M45" t="s" s="2">
         <v>399</v>
       </c>
+      <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
         <v>400</v>
       </c>
@@ -6817,7 +6894,7 @@
         <v>43</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>45</v>
@@ -6832,10 +6909,10 @@
         <v>45</v>
       </c>
       <c r="AL45" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6846,7 +6923,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6872,10 +6949,10 @@
         <v>57</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>333</v>
+        <v>403</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>334</v>
+        <v>404</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6926,7 +7003,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>335</v>
+        <v>402</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -6938,7 +7015,7 @@
         <v>45</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>45</v>
@@ -6947,10 +7024,10 @@
         <v>45</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>45</v>
+        <v>374</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>336</v>
+        <v>405</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -6961,11 +7038,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6981,19 +7058,19 @@
         <v>45</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>100</v>
+        <v>407</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>338</v>
+        <v>408</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>339</v>
+        <v>409</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>124</v>
+        <v>410</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7043,7 +7120,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>340</v>
+        <v>406</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7055,7 +7132,7 @@
         <v>45</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>45</v>
@@ -7064,10 +7141,10 @@
         <v>45</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>45</v>
+        <v>411</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>336</v>
+        <v>412</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
@@ -7078,11 +7155,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>342</v>
+        <v>45</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7095,26 +7172,24 @@
         <v>45</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>100</v>
+        <v>414</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>343</v>
+        <v>415</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>344</v>
+        <v>416</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>125</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>45</v>
       </c>
@@ -7162,7 +7237,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>345</v>
+        <v>413</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7174,7 +7249,7 @@
         <v>45</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>45</v>
@@ -7183,10 +7258,10 @@
         <v>45</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>45</v>
+        <v>411</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>98</v>
+        <v>418</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
@@ -7197,7 +7272,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7205,10 +7280,10 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>45</v>
@@ -7220,19 +7295,19 @@
         <v>56</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>168</v>
+        <v>354</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>182</v>
+        <v>423</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7257,13 +7332,13 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>289</v>
+        <v>45</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>410</v>
+        <v>45</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>411</v>
+        <v>45</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
@@ -7281,13 +7356,13 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>45</v>
@@ -7299,16 +7374,16 @@
         <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>412</v>
+        <v>45</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>186</v>
+        <v>424</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>187</v>
+        <v>425</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>188</v>
+        <v>45</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>45</v>
@@ -7316,7 +7391,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7336,23 +7411,19 @@
         <v>45</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>414</v>
+        <v>57</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>415</v>
+        <v>192</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>45</v>
       </c>
@@ -7400,7 +7471,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>413</v>
+        <v>194</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7412,41 +7483,41 @@
         <v>45</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>417</v>
+        <v>45</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>252</v>
+        <v>45</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>253</v>
+        <v>195</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>254</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>45</v>
@@ -7458,20 +7529,18 @@
         <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>168</v>
+        <v>100</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>419</v>
+        <v>197</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>420</v>
+        <v>198</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>259</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>45</v>
       </c>
@@ -7495,13 +7564,13 @@
         <v>45</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>260</v>
+        <v>45</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>261</v>
+        <v>45</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>45</v>
@@ -7519,19 +7588,19 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>418</v>
+        <v>200</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>263</v>
+        <v>45</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>45</v>
@@ -7540,10 +7609,10 @@
         <v>45</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>264</v>
+        <v>195</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
@@ -7554,11 +7623,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>266</v>
+        <v>365</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7571,25 +7640,25 @@
         <v>45</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>168</v>
+        <v>100</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>267</v>
+        <v>366</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>268</v>
+        <v>367</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>269</v>
+        <v>124</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>270</v>
+        <v>125</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>45</v>
@@ -7614,13 +7683,13 @@
         <v>45</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>260</v>
+        <v>45</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>271</v>
+        <v>45</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>272</v>
+        <v>45</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>45</v>
@@ -7638,7 +7707,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>422</v>
+        <v>368</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7650,30 +7719,30 @@
         <v>45</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>273</v>
+        <v>45</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>274</v>
+        <v>45</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>275</v>
+        <v>98</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>276</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7681,10 +7750,10 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>45</v>
@@ -7693,22 +7762,22 @@
         <v>45</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>327</v>
+        <v>432</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>328</v>
+        <v>182</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>45</v>
@@ -7733,13 +7802,13 @@
         <v>45</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>45</v>
+        <v>319</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>45</v>
+        <v>433</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>45</v>
+        <v>434</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>45</v>
@@ -7757,13 +7826,13 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>45</v>
@@ -7775,23 +7844,499 @@
         <v>45</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>45</v>
+        <v>435</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>330</v>
+        <v>187</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>331</v>
+        <v>188</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>45</v>
+        <v>189</v>
       </c>
       <c r="AO53" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO57" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO53">
+  <autoFilter ref="A1:AO57">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7801,7 +8346,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI52">
+  <conditionalFormatting sqref="A2:AI56">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-pacio-plf.xlsx
+++ b/StructureDefinition-pacio-plf.xlsx
@@ -1583,47 +1583,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.6015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="18.515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="19.10546875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="66.26953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="67.91015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="60.515625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.89453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="63.703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.40625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="239.703125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="247.40625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="103.87890625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="37.70703125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="107.01953125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="42.34375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>55</v>
@@ -4577,7 +4577,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>55</v>

--- a/StructureDefinition-pacio-plf.xlsx
+++ b/StructureDefinition-pacio-plf.xlsx
@@ -1583,47 +1583,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="19.10546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.6015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="18.515625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="67.91015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="66.26953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="63.703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.40625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="60.515625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.89453125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="247.40625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="239.703125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="107.01953125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="103.87890625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="37.70703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-pacio-plf.xlsx
+++ b/StructureDefinition-pacio-plf.xlsx
@@ -284,7 +284,7 @@
 </t>
   </si>
   <si>
-    <t>Text summary of the resource, for human interpretation</t>
+    <t>Text summary of the prior level of function for the patient.</t>
   </si>
   <si>
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
@@ -384,7 +384,7 @@
     <t>assistance-required</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://paciowg.github.io/functional-status-ig/StructureDefinition/assistance-required}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/functional-status-ig/StructureDefinition/assistance-required}
 </t>
   </si>
   <si>
@@ -859,7 +859,7 @@
 </t>
   </si>
   <si>
-    <t>Who is responsible for the observation</t>
+    <t>The person who performed the assessment.</t>
   </si>
   <si>
     <t>Who was responsible for asserting the observed value as "true".</t>

--- a/StructureDefinition-pacio-plf.xlsx
+++ b/StructureDefinition-pacio-plf.xlsx
@@ -384,7 +384,7 @@
     <t>assistance-required</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/functional-status-ig/StructureDefinition/assistance-required}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/pacio-fs/StructureDefinition/assistance-required}
 </t>
   </si>
   <si>
@@ -1583,47 +1583,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.6015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="18.515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="19.10546875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="66.26953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="67.91015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="60.515625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.89453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="63.703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.40625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="239.703125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="247.40625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="103.87890625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="37.70703125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="107.01953125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="42.34375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-pacio-plf.xlsx
+++ b/StructureDefinition-pacio-plf.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AP$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$57</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2223" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2129" uniqueCount="447">
   <si>
     <t>Path</t>
   </si>
@@ -120,9 +120,6 @@
   </si>
   <si>
     <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: Argonaut-DQ-DSTU2</t>
   </si>
   <si>
     <t>Mapping: Workflow Pattern</t>
@@ -162,14 +159,14 @@
     <t>Measurements and simple assertions</t>
   </si>
   <si>
-    <t>This profile is  created to meet the 2015 Edition Common Clinical Data Set 'Laboratory test(s) and Laboratory value(s)/result(s)' requirements.</t>
+    <t>Measurements and simple assertions made about a patient, device or other subject.</t>
   </si>
   <si>
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}us-core-2:If there is no component or related element then either a value[x] or a data absent reason must be present {(component.empty() and related.empty()) implies (dataAbsentReason or value)}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -387,7 +384,7 @@
     <t>assistance-required</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://paciowg.github.io/functional-status-ig//StructureDefinition/assistance-required}
+    <t xml:space="preserve">Extension {http://paciowg.github.io/functional-status-ig/StructureDefinition/assistance-required}
 </t>
   </si>
   <si>
@@ -524,7 +521,10 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status</t>
+    <t>Codes providing the status of an observation.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -567,41 +567,26 @@
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:$this}
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Observation.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name
 </t>
   </si>
   <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>Laboratory</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://terminology.hl7.org/CodeSystem/observation-category"/&gt;
-    &lt;code value="laboratory"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>Observation.code</t>
-  </si>
-  <si>
-    <t>Name
-Test NameObservation Identifer</t>
-  </si>
-  <si>
-    <t>Laboratory Test Name</t>
-  </si>
-  <si>
-    <t>The test that was performed.  A LOINC **SHALL** be used if the concept is present in LOINC.</t>
-  </si>
-  <si>
-    <t>The typical patterns for codes are:  1)  a LOINC code either as a  translation from a "local" code or as a primary code, or 2)  a local code only if no suitable LOINC exists,  or 3)  both the local and the LOINC translation.   Systems SHALL be capable of sending the local code if one exists.  When using LOINC , Use either the SHORTNAME or LONG_COMMON_NAME field for the display.</t>
+    <t>Type of observation (code / type)</t>
+  </si>
+  <si>
+    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
+  </si>
+  <si>
+    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
   </si>
   <si>
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
@@ -725,7 +710,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient)
+    <t xml:space="preserve">Reference(Patient|Group|Device|Location)
 </t>
   </si>
   <si>
@@ -821,21 +806,13 @@
     <t>Clinically relevant time/time-period for observation</t>
   </si>
   <si>
-    <t>For lab tests this is the specimen collection date.  For Ask at Order Entry Questions (AOE)'s this is the date the question was asked.</t>
+    <t>The time or time-period the observed value is asserted as being true. For biological subjects - e.g. human patients - this is usually called the "physiologically relevant time". This is usually either the time of the procedure or of specimen collection, but very often the source of the date/time is not known, only the date/time itself.</t>
   </si>
   <si>
     <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://hl7.org/fhir/R4/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
   </si>
   <si>
     <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">us-core-1
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-us-core-1:Datetime must be at least to day. {($this as dateTime).toString().length() &gt;= 8}</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -910,10 +887,10 @@
 CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
-    <t>Result Value</t>
-  </si>
-  <si>
-    <t>The Laboratory result value.  If a coded value,  the valueCodeableConcept.code **SHOULD**  be selected from [SNOMED CT](http://hl7.org/fhir/ValueSet/uslab-obs-codedresults).  If a numeric value, valueQuantity.code **SHALL** be selected from [UCUM](http://unitsofmeasure.org).  A FHIR [UCUM Codes value set](http://hl7.org/fhir/STU3/valueset-ucum-units.html) that defines all UCUM codes is in the FHIR specification.</t>
+    <t>Actual result</t>
+  </si>
+  <si>
+    <t>The information determined as a result of making the observation, if the information has a simple value.</t>
   </si>
   <si>
     <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
@@ -922,12 +899,8 @@
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
   </si>
   <si>
-    <t>obs-7
-us-core-2us-core-3us-core-4</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-us-core-4:SHOULD use Snomed CT for coded Results {valueCodeableConcept.coding.system.empty() or valueCodeableConcept.coding.system = 'http://snomed.info/sct'}us-core-3:SHALL use UCUM for coded quantity units. {valueQuantity.system.empty() or valueQuantity.system = 'http://unitsofmeasure.org'}</t>
+    <t xml:space="preserve">obs-7
+</t>
   </si>
   <si>
     <t>&lt; 441742003 |Evaluation finding|</t>
@@ -961,11 +934,14 @@
     <t>extensible</t>
   </si>
   <si>
+    <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
+  </si>
+  <si>
     <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
   </si>
   <si>
-    <t>obs-6
-us-core-2</t>
+    <t xml:space="preserve">obs-6
+</t>
   </si>
   <si>
     <t>value.nullFlavor</t>
@@ -1418,9 +1394,6 @@
     <t>Actual component result</t>
   </si>
   <si>
-    <t>The information determined as a result of making the observation, if the information has a simple value.</t>
-  </si>
-  <si>
     <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
   </si>
   <si>
@@ -1438,13 +1411,6 @@
   <si>
     <t>"Null" or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "test not done". 
 The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed.  Because of these options, use-case agreements are required to interpret general observations for exceptional values.</t>
-  </si>
-  <si>
-    <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obs-6
-</t>
   </si>
   <si>
     <t>Observation.component.interpretation</t>
@@ -1605,7 +1571,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP58"/>
+  <dimension ref="A1:AO57"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1614,48 +1580,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.6015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="18.515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="19.10546875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="66.26953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="67.91015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="60.515625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.89453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="26.328125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="63.703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.40625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="29.328125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="239.703125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="103.87890625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="37.70703125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="247.40625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="107.01953125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="42.34375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1782,110 +1747,107 @@
       <c r="AO1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="AP1" t="s" s="1">
-        <v>41</v>
-      </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F2" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G2" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>48</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>49</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AF2" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG2" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG2" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="AJ2" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>51</v>
@@ -1897,1319 +1859,1286 @@
         <v>53</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>60</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>61</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>65</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>66</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>67</v>
       </c>
-      <c r="AF4" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>68</v>
-      </c>
       <c r="AJ4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>72</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>73</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>78</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AF6" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM7" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AF7" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="AN7" t="s" s="2">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F8" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE8" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL8" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM8" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AF8" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL8" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM8" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="AN8" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F9" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD9" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AE9" t="s" s="2">
+      <c r="AF9" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI9" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="AF9" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>107</v>
-      </c>
       <c r="AJ9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G10" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G10" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="H10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE10" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AF10" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH10" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AI10" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="AF10" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG10" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH10" t="s" s="2">
+      <c r="AJ10" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="AI10" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AJ10" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="AK10" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL10" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="AL10" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>115</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G11" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G11" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="H11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE11" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AI11" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="AF11" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>107</v>
-      </c>
       <c r="AJ11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F12" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="N12" t="s" s="2">
-        <v>126</v>
-      </c>
       <c r="O12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG12" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG12" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F13" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG13" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG13" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>134</v>
@@ -3218,370 +3147,360 @@
         <v>135</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AP13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F14" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG14" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG14" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>46</v>
+        <v>142</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>144</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>145</v>
+        <v>45</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F15" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF15" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG15" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG15" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>46</v>
+        <v>151</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>153</v>
       </c>
       <c r="AN15" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO15" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" hidden="true">
+      <c r="A16" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP15" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="I16" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J16" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="N16" t="s" s="2">
-        <v>159</v>
-      </c>
       <c r="O16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W16" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="X16" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="X16" s="2"/>
       <c r="Y16" t="s" s="2">
         <v>161</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AP16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" hidden="true">
@@ -3590,23 +3509,23 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>168</v>
@@ -3624,29 +3543,29 @@
         <v>172</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
         <v>173</v>
@@ -3655,2833 +3574,2763 @@
         <v>174</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AB17" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>167</v>
       </c>
       <c r="AF17" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG17" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG17" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>167</v>
+        <v>45</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>46</v>
+        <v>175</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>176</v>
       </c>
       <c r="AO17" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" hidden="true">
+      <c r="A18" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="AP17" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="B18" t="s" s="2">
+      <c r="B18" s="2"/>
+      <c r="C18" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>56</v>
-      </c>
-      <c r="F18" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G18" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>168</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>46</v>
+        <v>186</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>46</v>
+        <v>187</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>46</v>
+        <v>188</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AP18" t="s" s="2">
-        <v>46</v>
+        <v>190</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>181</v>
+        <v>45</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G19" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J19" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="H19" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>168</v>
-      </c>
       <c r="K19" t="s" s="2">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>186</v>
+        <v>45</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="X19" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y19" t="s" s="2">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>188</v>
+        <v>45</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>189</v>
+        <v>45</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>191</v>
+        <v>45</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AP19" t="s" s="2">
-        <v>193</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F20" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="G20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M20" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>124</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>46</v>
+        <v>199</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AF20" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG20" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG20" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>46</v>
+        <v>195</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>198</v>
+        <v>45</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F21" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>101</v>
+        <v>202</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="O21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>202</v>
+        <v>45</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AF21" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG21" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG21" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>46</v>
+        <v>208</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>46</v>
+        <v>209</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>198</v>
+        <v>45</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I22" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J22" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="J22" t="s" s="2">
-        <v>205</v>
-      </c>
       <c r="K22" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>46</v>
+        <v>215</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>46</v>
+        <v>217</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>212</v>
+        <v>45</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F23" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J23" t="s" s="2">
-        <v>58</v>
+        <v>220</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>218</v>
+        <v>45</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
         <v>219</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>46</v>
+        <v>225</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>46</v>
+        <v>226</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="F24" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G24" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J24" t="s" s="2">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="AF24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG24" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG24" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>222</v>
+        <v>45</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AL24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>230</v>
-      </c>
       <c r="AO24" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AP24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>46</v>
+        <v>236</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="O25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>46</v>
+        <v>242</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>46</v>
+        <v>243</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>190</v>
+        <v>244</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AP25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J26" t="s" s="2">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>46</v>
+        <v>253</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>245</v>
+        <v>45</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>46</v>
+        <v>254</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AP26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>250</v>
+        <v>45</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="F27" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G27" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J27" t="s" s="2">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>256</v>
+        <v>45</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>257</v>
+        <v>67</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>249</v>
+        <v>45</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>258</v>
+        <v>45</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>46</v>
+        <v>262</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="AP27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="F28" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="G28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G28" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J28" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="O28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="AF28" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG28" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG28" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>46</v>
+        <v>270</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>46</v>
+        <v>271</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AP28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="F29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G29" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J29" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="N29" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>46</v>
+        <v>280</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>46</v>
+        <v>282</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>277</v>
+        <v>45</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AP29" t="s" s="2">
-        <v>46</v>
+        <v>284</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>280</v>
+        <v>168</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>46</v>
+        <v>290</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>46</v>
+        <v>291</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>46</v>
+        <v>292</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>286</v>
+        <v>67</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>279</v>
+        <v>45</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>287</v>
+        <v>98</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>289</v>
+        <v>45</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP30" t="s" s="2">
-        <v>290</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>46</v>
+        <v>296</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F31" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="G31" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>168</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="X31" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="Y31" t="s" s="2">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="AF31" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG31" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG31" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH31" t="s" s="2">
-        <v>298</v>
+        <v>45</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>291</v>
+        <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>46</v>
+        <v>303</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>46</v>
+        <v>304</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>99</v>
+        <v>305</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>299</v>
+        <v>45</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP31" t="s" s="2">
-        <v>46</v>
+        <v>306</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>301</v>
+        <v>45</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F32" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>168</v>
+        <v>308</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>296</v>
+        <v>45</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>306</v>
+        <v>45</v>
       </c>
       <c r="Y32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE32" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="Z32" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>300</v>
-      </c>
       <c r="AF32" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG32" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG32" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>310</v>
+        <v>45</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP32" t="s" s="2">
-        <v>311</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>313</v>
+        <v>168</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>46</v>
+        <v>319</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>46</v>
+        <v>320</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>46</v>
+        <v>321</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>46</v>
+        <v>322</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>46</v>
+        <v>323</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>319</v>
+        <v>45</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP33" t="s" s="2">
-        <v>46</v>
+        <v>325</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>168</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="O34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="Y34" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE34" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="Z34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>320</v>
-      </c>
       <c r="AF34" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>329</v>
+        <v>45</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP34" t="s" s="2">
-        <v>330</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>168</v>
+        <v>336</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>324</v>
+        <v>45</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>336</v>
+        <v>45</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>337</v>
+        <v>45</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>46</v>
+        <v>340</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>46</v>
+        <v>341</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>339</v>
+        <v>45</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP35" t="s" s="2">
-        <v>46</v>
+        <v>343</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>46</v>
+        <v>349</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>347</v>
+        <v>45</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP36" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F37" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="G37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="O37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="AF37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG37" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG37" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>68</v>
+        <v>359</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>356</v>
+        <v>45</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP37" t="s" s="2">
-        <v>357</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>359</v>
+        <v>57</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>360</v>
+        <v>192</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>358</v>
+        <v>194</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>364</v>
+        <v>45</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>365</v>
+        <v>195</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>366</v>
+        <v>45</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F39" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="G39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>124</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AF39" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG39" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG39" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>46</v>
+        <v>195</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>198</v>
+        <v>45</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>122</v>
+        <v>365</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F40" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>200</v>
+        <v>366</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>201</v>
+        <v>367</v>
       </c>
       <c r="M40" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="N40" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>203</v>
+        <v>368</v>
       </c>
       <c r="AF40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG40" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG40" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>198</v>
+        <v>45</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" hidden="true">
@@ -6490,26 +6339,26 @@
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>370</v>
+        <v>45</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>101</v>
+        <v>370</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>371</v>
@@ -6517,601 +6366,584 @@
       <c r="L41" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="M41" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>126</v>
-      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH41" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="AF41" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="AI41" t="s" s="2">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>46</v>
+        <v>374</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>46</v>
+        <v>375</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>379</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>380</v>
+        <v>45</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>375</v>
+        <v>168</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+      <c r="N43" t="s" s="2">
+        <v>384</v>
+      </c>
       <c r="O43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>46</v>
+        <v>385</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>46</v>
+        <v>386</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>378</v>
+        <v>45</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>46</v>
+        <v>387</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>46</v>
+        <v>388</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>379</v>
+        <v>305</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>384</v>
+        <v>45</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F44" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="G44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J44" t="s" s="2">
         <v>168</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>80</v>
+        <v>319</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="AF44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG44" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG44" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>46</v>
+        <v>387</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>393</v>
+        <v>305</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>310</v>
+        <v>45</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>168</v>
+        <v>397</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>324</v>
+        <v>45</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>399</v>
+        <v>45</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>400</v>
+        <v>45</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>392</v>
+        <v>45</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>310</v>
+        <v>45</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>402</v>
+        <v>57</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>403</v>
@@ -7120,118 +6952,113 @@
         <v>404</v>
       </c>
       <c r="M46" s="2"/>
-      <c r="N46" t="s" s="2">
-        <v>405</v>
-      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>46</v>
+        <v>374</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>46</v>
+        <v>405</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>406</v>
+        <v>45</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="G47" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I47" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G47" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="J47" t="s" s="2">
-        <v>58</v>
+        <v>407</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>408</v>
@@ -7239,237 +7066,233 @@
       <c r="L47" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="M47" s="2"/>
+      <c r="M47" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AF47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG47" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG47" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>46</v>
+        <v>411</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>379</v>
+        <v>412</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>410</v>
+        <v>45</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F48" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="AF48" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="AM48" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>417</v>
+        <v>45</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F49" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>419</v>
+        <v>354</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>420</v>
@@ -7480,1184 +7303,1037 @@
       <c r="M49" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="N49" s="2"/>
+      <c r="N49" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="O49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AF49" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG49" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG49" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>46</v>
+        <v>424</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>423</v>
+        <v>45</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J50" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="J50" t="s" s="2">
-        <v>359</v>
-      </c>
       <c r="K50" t="s" s="2">
-        <v>425</v>
+        <v>192</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>428</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>424</v>
+        <v>194</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>429</v>
+        <v>195</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>430</v>
+        <v>45</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F51" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="G51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>124</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AF51" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG51" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG51" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>46</v>
+        <v>195</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>198</v>
+        <v>45</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>122</v>
+        <v>365</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F52" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>200</v>
+        <v>366</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>201</v>
+        <v>367</v>
       </c>
       <c r="M52" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="N52" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>203</v>
+        <v>368</v>
       </c>
       <c r="AF52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG52" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG52" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>198</v>
+        <v>45</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>370</v>
+        <v>45</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>101</v>
+        <v>168</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>371</v>
+        <v>430</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>372</v>
+        <v>431</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>125</v>
+        <v>432</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>126</v>
+        <v>182</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>46</v>
+        <v>319</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>46</v>
+        <v>433</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>46</v>
+        <v>184</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>373</v>
+        <v>429</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>46</v>
+        <v>434</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>46</v>
+        <v>187</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>46</v>
+        <v>188</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>99</v>
+        <v>189</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I54" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="F54" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J54" t="s" s="2">
-        <v>168</v>
+        <v>275</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>436</v>
+        <v>277</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>437</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>185</v>
+        <v>279</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R54" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>324</v>
+        <v>45</v>
       </c>
       <c r="X54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK54" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="Y54" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="AL54" t="s" s="2">
-        <v>439</v>
+        <v>282</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>190</v>
+        <v>283</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>191</v>
+        <v>45</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AP54" t="s" s="2">
-        <v>46</v>
+        <v>284</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>280</v>
+        <v>168</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="M55" t="s" s="2">
-        <v>443</v>
-      </c>
       <c r="N55" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R55" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>46</v>
+        <v>290</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>46</v>
+        <v>291</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>46</v>
+        <v>292</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>46</v>
+        <v>293</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>444</v>
+        <v>98</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>289</v>
+        <v>45</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP55" t="s" s="2">
-        <v>290</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>46</v>
+        <v>296</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F56" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="G56" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J56" t="s" s="2">
         <v>168</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>446</v>
+        <v>297</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>447</v>
+        <v>298</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>448</v>
+        <v>299</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R56" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>449</v>
+        <v>301</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="AF56" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG56" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG56" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH56" t="s" s="2">
-        <v>450</v>
+        <v>45</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>46</v>
+        <v>303</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>46</v>
+        <v>304</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>99</v>
+        <v>305</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>299</v>
+        <v>45</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP56" t="s" s="2">
-        <v>46</v>
+        <v>306</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>301</v>
+        <v>45</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F57" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G57" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>168</v>
+        <v>45</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>302</v>
+        <v>445</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>303</v>
+        <v>446</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>304</v>
+        <v>357</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>305</v>
+        <v>358</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R57" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U57" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V57" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>296</v>
+        <v>45</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>306</v>
+        <v>45</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>307</v>
+        <v>45</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="AF57" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG57" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG57" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH57" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>308</v>
+        <v>360</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>309</v>
+        <v>361</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>310</v>
+        <v>45</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP57" t="s" s="2">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="58" hidden="true">
-      <c r="A58" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F58" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="P58" s="2"/>
-      <c r="Q58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="R58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP58" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP58">
+  <autoFilter ref="A1:AO57">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8667,7 +8343,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI57">
+  <conditionalFormatting sqref="A2:AI56">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-pacio-plf.xlsx
+++ b/StructureDefinition-pacio-plf.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AP$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$57</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2223" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2129" uniqueCount="446">
   <si>
     <t>Path</t>
   </si>
@@ -120,9 +120,6 @@
   </si>
   <si>
     <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: Argonaut-DQ-DSTU2</t>
   </si>
   <si>
     <t>Mapping: Workflow Pattern</t>
@@ -162,14 +159,14 @@
     <t>Measurements and simple assertions</t>
   </si>
   <si>
-    <t>This profile is  created to meet the 2015 Edition Common Clinical Data Set 'Laboratory test(s) and Laboratory value(s)/result(s)' requirements.</t>
+    <t>Measurements and simple assertions made about a patient, device or other subject.</t>
   </si>
   <si>
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}us-core-2:If there is no component or related element then either a value[x] or a data absent reason must be present {(component.empty() and related.empty()) implies (dataAbsentReason or value)}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -387,7 +384,7 @@
     <t>assistance-required</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://paciowg.github.io/functional-status-ig//StructureDefinition/assistance-required}
+    <t xml:space="preserve">Extension {http://paciowg.github.io/functional-status-ig/StructureDefinition/assistance-required}
 </t>
   </si>
   <si>
@@ -521,7 +518,10 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status</t>
+    <t>Codes providing the status of an observation.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -564,41 +564,26 @@
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:$this}
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Observation.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name
 </t>
   </si>
   <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>Laboratory</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://terminology.hl7.org/CodeSystem/observation-category"/&gt;
-    &lt;code value="laboratory"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>Observation.code</t>
-  </si>
-  <si>
-    <t>Name
-Test NameObservation Identifer</t>
-  </si>
-  <si>
-    <t>Laboratory Test Name</t>
-  </si>
-  <si>
-    <t>The test that was performed.  A LOINC **SHALL** be used if the concept is present in LOINC.</t>
-  </si>
-  <si>
-    <t>The typical patterns for codes are:  1)  a LOINC code either as a  translation from a "local" code or as a primary code, or 2)  a local code only if no suitable LOINC exists,  or 3)  both the local and the LOINC translation.   Systems SHALL be capable of sending the local code if one exists.  When using LOINC , Use either the SHORTNAME or LONG_COMMON_NAME field for the display.</t>
+    <t>Type of observation (code / type)</t>
+  </si>
+  <si>
+    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
+  </si>
+  <si>
+    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
   </si>
   <si>
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
@@ -722,7 +707,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient)
+    <t xml:space="preserve">Reference(Patient|Group|Device|Location)
 </t>
   </si>
   <si>
@@ -818,21 +803,13 @@
     <t>Clinically relevant time/time-period for observation</t>
   </si>
   <si>
-    <t>For lab tests this is the specimen collection date.  For Ask at Order Entry Questions (AOE)'s this is the date the question was asked.</t>
+    <t>The time or time-period the observed value is asserted as being true. For biological subjects - e.g. human patients - this is usually called the "physiologically relevant time". This is usually either the time of the procedure or of specimen collection, but very often the source of the date/time is not known, only the date/time itself.</t>
   </si>
   <si>
     <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://hl7.org/fhir/R4/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
   </si>
   <si>
     <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">us-core-1
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-us-core-1:Datetime must be at least to day. {($this as dateTime).toString().length() &gt;= 8}</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -907,10 +884,10 @@
 CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
-    <t>Result Value</t>
-  </si>
-  <si>
-    <t>The Laboratory result value.  If a coded value,  the valueCodeableConcept.code **SHOULD**  be selected from [SNOMED CT](http://hl7.org/fhir/ValueSet/uslab-obs-codedresults).  If a numeric value, valueQuantity.code **SHALL** be selected from [UCUM](http://unitsofmeasure.org).  A FHIR [UCUM Codes value set](http://hl7.org/fhir/STU3/valueset-ucum-units.html) that defines all UCUM codes is in the FHIR specification.</t>
+    <t>Actual result</t>
+  </si>
+  <si>
+    <t>The information determined as a result of making the observation, if the information has a simple value.</t>
   </si>
   <si>
     <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
@@ -919,12 +896,8 @@
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
   </si>
   <si>
-    <t>obs-7
-us-core-2us-core-3us-core-4</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-us-core-4:SHOULD use Snomed CT for coded Results {valueCodeableConcept.coding.system.empty() or valueCodeableConcept.coding.system = 'http://snomed.info/sct'}us-core-3:SHALL use UCUM for coded quantity units. {valueQuantity.system.empty() or valueQuantity.system = 'http://unitsofmeasure.org'}</t>
+    <t xml:space="preserve">obs-7
+</t>
   </si>
   <si>
     <t>&lt; 441742003 |Evaluation finding|</t>
@@ -958,11 +931,14 @@
     <t>extensible</t>
   </si>
   <si>
+    <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
+  </si>
+  <si>
     <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
   </si>
   <si>
-    <t>obs-6
-us-core-2</t>
+    <t xml:space="preserve">obs-6
+</t>
   </si>
   <si>
     <t>value.nullFlavor</t>
@@ -1415,9 +1391,6 @@
     <t>Actual component result</t>
   </si>
   <si>
-    <t>The information determined as a result of making the observation, if the information has a simple value.</t>
-  </si>
-  <si>
     <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
   </si>
   <si>
@@ -1435,13 +1408,6 @@
   <si>
     <t>"Null" or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "test not done". 
 The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed.  Because of these options, use-case agreements are required to interpret general observations for exceptional values.</t>
-  </si>
-  <si>
-    <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obs-6
-</t>
   </si>
   <si>
     <t>Observation.component.interpretation</t>
@@ -1602,7 +1568,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP58"/>
+  <dimension ref="A1:AO57"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1611,48 +1577,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.6015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="18.515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="19.10546875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="66.26953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="67.91015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="60.515625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.89453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="26.328125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="63.703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.40625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="29.328125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="239.703125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="103.87890625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="37.70703125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="247.40625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="107.01953125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="42.34375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1779,110 +1744,107 @@
       <c r="AO1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="AP1" t="s" s="1">
-        <v>41</v>
-      </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F2" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G2" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>48</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>49</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AF2" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG2" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG2" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="AJ2" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>51</v>
@@ -1894,1319 +1856,1286 @@
         <v>53</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>60</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>61</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>65</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>66</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>67</v>
       </c>
-      <c r="AF4" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>68</v>
-      </c>
       <c r="AJ4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>72</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>73</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>78</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AF6" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM7" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AF7" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="AN7" t="s" s="2">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F8" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE8" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL8" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM8" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AF8" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL8" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM8" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="AN8" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F9" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD9" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AE9" t="s" s="2">
+      <c r="AF9" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI9" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="AF9" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>107</v>
-      </c>
       <c r="AJ9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G10" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G10" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="H10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE10" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AF10" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH10" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AI10" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="AF10" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG10" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH10" t="s" s="2">
+      <c r="AJ10" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="AI10" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AJ10" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="AK10" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL10" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="AL10" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>115</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G11" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G11" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="H11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE11" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AI11" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="AF11" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>107</v>
-      </c>
       <c r="AJ11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F12" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="N12" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="O12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AF12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG12" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG12" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F13" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG13" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG13" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>46</v>
+        <v>131</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>133</v>
@@ -3215,370 +3144,360 @@
         <v>134</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AP13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F14" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG14" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG14" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>46</v>
+        <v>141</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>143</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>144</v>
+        <v>45</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F15" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AF15" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG15" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG15" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>46</v>
+        <v>150</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>152</v>
       </c>
       <c r="AN15" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO15" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" hidden="true">
+      <c r="A16" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP15" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="I16" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J16" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="N16" t="s" s="2">
-        <v>158</v>
-      </c>
       <c r="O16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W16" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="X16" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="X16" s="2"/>
       <c r="Y16" t="s" s="2">
         <v>160</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AP16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" hidden="true">
@@ -3587,23 +3506,23 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>167</v>
@@ -3621,29 +3540,29 @@
         <v>171</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
         <v>172</v>
@@ -3652,2833 +3571,2763 @@
         <v>173</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AB17" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>166</v>
       </c>
       <c r="AF17" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG17" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG17" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>46</v>
+        <v>174</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>175</v>
       </c>
       <c r="AO17" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" hidden="true">
+      <c r="A18" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="AP17" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="B18" t="s" s="2">
+      <c r="B18" s="2"/>
+      <c r="C18" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>56</v>
-      </c>
-      <c r="F18" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G18" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>167</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>46</v>
+        <v>185</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>46</v>
+        <v>186</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>46</v>
+        <v>187</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AP18" t="s" s="2">
-        <v>46</v>
+        <v>189</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G19" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J19" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="H19" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>167</v>
-      </c>
       <c r="K19" t="s" s="2">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>185</v>
+        <v>45</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="X19" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y19" t="s" s="2">
-        <v>186</v>
+        <v>45</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>179</v>
+        <v>45</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>188</v>
+        <v>45</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>190</v>
+        <v>45</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AP19" t="s" s="2">
-        <v>192</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F20" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="G20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M20" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>46</v>
+        <v>198</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AF20" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG20" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG20" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>46</v>
+        <v>194</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>197</v>
+        <v>45</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F21" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="O21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>201</v>
+        <v>45</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="AF21" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG21" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG21" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>46</v>
+        <v>207</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>46</v>
+        <v>208</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>197</v>
+        <v>45</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I22" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J22" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="J22" t="s" s="2">
-        <v>204</v>
-      </c>
       <c r="K22" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>46</v>
+        <v>214</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>46</v>
+        <v>216</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>211</v>
+        <v>45</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F23" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J23" t="s" s="2">
-        <v>58</v>
+        <v>219</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>217</v>
+        <v>45</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
         <v>218</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>46</v>
+        <v>224</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>46</v>
+        <v>225</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="F24" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G24" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J24" t="s" s="2">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="AF24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG24" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG24" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>221</v>
+        <v>45</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AL24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>229</v>
-      </c>
       <c r="AO24" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="AP24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>46</v>
+        <v>235</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="O25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>46</v>
+        <v>241</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>46</v>
+        <v>242</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>189</v>
+        <v>243</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="AP25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J26" t="s" s="2">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>46</v>
+        <v>252</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>244</v>
+        <v>45</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>46</v>
+        <v>253</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="AP26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>249</v>
+        <v>45</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="F27" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G27" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J27" t="s" s="2">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>255</v>
+        <v>45</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>256</v>
+        <v>67</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>248</v>
+        <v>45</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>257</v>
+        <v>45</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>46</v>
+        <v>261</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AP27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="F28" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="G28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G28" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J28" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="O28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="AF28" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG28" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG28" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>46</v>
+        <v>269</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>46</v>
+        <v>270</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="AP28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="F29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G29" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J29" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="N29" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>46</v>
+        <v>279</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>46</v>
+        <v>281</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>276</v>
+        <v>45</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AP29" t="s" s="2">
-        <v>46</v>
+        <v>283</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>279</v>
+        <v>167</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>46</v>
+        <v>289</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>46</v>
+        <v>290</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>46</v>
+        <v>291</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>285</v>
+        <v>67</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>278</v>
+        <v>45</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>286</v>
+        <v>98</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>288</v>
+        <v>45</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP30" t="s" s="2">
-        <v>289</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>46</v>
+        <v>295</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F31" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="G31" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>167</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="X31" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="Y31" t="s" s="2">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="AF31" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG31" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG31" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH31" t="s" s="2">
-        <v>297</v>
+        <v>45</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>290</v>
+        <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>46</v>
+        <v>302</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>46</v>
+        <v>303</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>99</v>
+        <v>304</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>298</v>
+        <v>45</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP31" t="s" s="2">
-        <v>46</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>300</v>
+        <v>45</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F32" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>167</v>
+        <v>307</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>295</v>
+        <v>45</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>305</v>
+        <v>45</v>
       </c>
       <c r="Y32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE32" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="Z32" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>299</v>
-      </c>
       <c r="AF32" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG32" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG32" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>309</v>
+        <v>45</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP32" t="s" s="2">
-        <v>310</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>312</v>
+        <v>167</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>46</v>
+        <v>318</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>46</v>
+        <v>319</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>46</v>
+        <v>320</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>46</v>
+        <v>321</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>46</v>
+        <v>322</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>318</v>
+        <v>45</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP33" t="s" s="2">
-        <v>46</v>
+        <v>324</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>167</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="O34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="Y34" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE34" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="Z34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>319</v>
-      </c>
       <c r="AF34" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>328</v>
+        <v>45</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP34" t="s" s="2">
-        <v>329</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>167</v>
+        <v>335</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>323</v>
+        <v>45</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>335</v>
+        <v>45</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>336</v>
+        <v>45</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>46</v>
+        <v>339</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>46</v>
+        <v>340</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>338</v>
+        <v>45</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP35" t="s" s="2">
-        <v>46</v>
+        <v>342</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>46</v>
+        <v>348</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>346</v>
+        <v>45</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP36" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F37" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="G37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="O37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="AF37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG37" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG37" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>68</v>
+        <v>358</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>355</v>
+        <v>45</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP37" t="s" s="2">
-        <v>356</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>358</v>
+        <v>57</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>359</v>
+        <v>191</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>357</v>
+        <v>193</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>363</v>
+        <v>45</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>364</v>
+        <v>194</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>365</v>
+        <v>45</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F39" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="G39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AF39" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG39" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG39" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>46</v>
+        <v>194</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>197</v>
+        <v>45</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>121</v>
+        <v>364</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F40" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>199</v>
+        <v>365</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>200</v>
+        <v>366</v>
       </c>
       <c r="M40" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="N40" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>202</v>
+        <v>367</v>
       </c>
       <c r="AF40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG40" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG40" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>197</v>
+        <v>45</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" hidden="true">
@@ -6487,26 +6336,26 @@
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>369</v>
+        <v>45</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>101</v>
+        <v>369</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>370</v>
@@ -6514,601 +6363,584 @@
       <c r="L41" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="M41" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>125</v>
-      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH41" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AF41" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="AI41" t="s" s="2">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>46</v>
+        <v>373</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>46</v>
+        <v>374</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>378</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>379</v>
+        <v>45</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>374</v>
+        <v>167</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+      <c r="N43" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="O43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>46</v>
+        <v>384</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>46</v>
+        <v>385</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>377</v>
+        <v>45</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>46</v>
+        <v>386</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>46</v>
+        <v>387</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>378</v>
+        <v>304</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>383</v>
+        <v>45</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F44" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="G44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J44" t="s" s="2">
         <v>167</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>80</v>
+        <v>318</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="AF44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG44" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG44" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>46</v>
+        <v>386</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>392</v>
+        <v>304</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>309</v>
+        <v>45</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>167</v>
+        <v>396</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>323</v>
+        <v>45</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>398</v>
+        <v>45</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>399</v>
+        <v>45</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>391</v>
+        <v>45</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>309</v>
+        <v>45</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>401</v>
+        <v>57</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>402</v>
@@ -7117,118 +6949,113 @@
         <v>403</v>
       </c>
       <c r="M46" s="2"/>
-      <c r="N46" t="s" s="2">
-        <v>404</v>
-      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>46</v>
+        <v>373</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>46</v>
+        <v>404</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>405</v>
+        <v>45</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="G47" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I47" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G47" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="J47" t="s" s="2">
-        <v>58</v>
+        <v>406</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>407</v>
@@ -7236,237 +7063,233 @@
       <c r="L47" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="M47" s="2"/>
+      <c r="M47" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AF47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG47" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG47" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>46</v>
+        <v>410</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>378</v>
+        <v>411</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>409</v>
+        <v>45</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F48" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="AF48" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="AM48" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>416</v>
+        <v>45</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F49" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>418</v>
+        <v>353</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>419</v>
@@ -7477,1184 +7300,1037 @@
       <c r="M49" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="N49" s="2"/>
+      <c r="N49" t="s" s="2">
+        <v>422</v>
+      </c>
       <c r="O49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AF49" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG49" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG49" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>46</v>
+        <v>423</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>422</v>
+        <v>45</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J50" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="J50" t="s" s="2">
-        <v>358</v>
-      </c>
       <c r="K50" t="s" s="2">
-        <v>424</v>
+        <v>191</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>427</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>423</v>
+        <v>193</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>428</v>
+        <v>194</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>429</v>
+        <v>45</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F51" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="G51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AF51" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG51" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG51" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>46</v>
+        <v>194</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>197</v>
+        <v>45</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>121</v>
+        <v>364</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F52" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>199</v>
+        <v>365</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>200</v>
+        <v>366</v>
       </c>
       <c r="M52" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="N52" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>202</v>
+        <v>367</v>
       </c>
       <c r="AF52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG52" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG52" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>197</v>
+        <v>45</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>369</v>
+        <v>45</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>101</v>
+        <v>167</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>370</v>
+        <v>429</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>371</v>
+        <v>430</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>124</v>
+        <v>431</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>125</v>
+        <v>181</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>46</v>
+        <v>318</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>46</v>
+        <v>432</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>46</v>
+        <v>183</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>372</v>
+        <v>428</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>46</v>
+        <v>433</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>46</v>
+        <v>186</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>46</v>
+        <v>187</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>99</v>
+        <v>188</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I54" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="F54" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J54" t="s" s="2">
-        <v>167</v>
+        <v>274</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>435</v>
+        <v>276</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>436</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>184</v>
+        <v>278</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R54" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>323</v>
+        <v>45</v>
       </c>
       <c r="X54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK54" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="Y54" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="AL54" t="s" s="2">
-        <v>438</v>
+        <v>281</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>189</v>
+        <v>282</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>190</v>
+        <v>45</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AP54" t="s" s="2">
-        <v>46</v>
+        <v>283</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>279</v>
+        <v>167</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="M55" t="s" s="2">
-        <v>442</v>
-      </c>
       <c r="N55" t="s" s="2">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R55" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>46</v>
+        <v>289</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>46</v>
+        <v>290</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>46</v>
+        <v>291</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>46</v>
+        <v>292</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>443</v>
+        <v>98</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>288</v>
+        <v>45</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP55" t="s" s="2">
-        <v>289</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>46</v>
+        <v>295</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F56" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="G56" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J56" t="s" s="2">
         <v>167</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>445</v>
+        <v>296</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>446</v>
+        <v>297</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>447</v>
+        <v>298</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R56" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>448</v>
+        <v>300</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="AF56" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG56" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG56" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH56" t="s" s="2">
-        <v>449</v>
+        <v>45</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>46</v>
+        <v>302</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>46</v>
+        <v>303</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>99</v>
+        <v>304</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>298</v>
+        <v>45</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP56" t="s" s="2">
-        <v>46</v>
+        <v>305</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>300</v>
+        <v>45</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F57" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G57" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>167</v>
+        <v>45</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>301</v>
+        <v>444</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>302</v>
+        <v>445</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>303</v>
+        <v>356</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>304</v>
+        <v>357</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R57" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U57" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V57" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>295</v>
+        <v>45</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>305</v>
+        <v>45</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>306</v>
+        <v>45</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="AF57" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG57" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG57" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH57" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>307</v>
+        <v>359</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>308</v>
+        <v>360</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>309</v>
+        <v>45</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP57" t="s" s="2">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="58" hidden="true">
-      <c r="A58" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F58" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="P58" s="2"/>
-      <c r="Q58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="R58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP58" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP58">
+  <autoFilter ref="A1:AO57">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8664,7 +8340,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI57">
+  <conditionalFormatting sqref="A2:AI56">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-pacio-plf.xlsx
+++ b/StructureDefinition-pacio-plf.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2129" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2129" uniqueCount="447">
   <si>
     <t>Path</t>
   </si>
@@ -284,7 +284,7 @@
 </t>
   </si>
   <si>
-    <t>Text summary of the prior level of function for the patient.</t>
+    <t>Text summary of the resource, for human interpretation</t>
   </si>
   <si>
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
@@ -388,7 +388,7 @@
 </t>
   </si>
   <si>
-    <t>Associated functional status used for display purposes.</t>
+    <t>Associated with prior level of function to provide a high-level indication of assistance required for the person’s baseline ability (physical function immediately preceding the current admission, illness, or exacerbation for a patient) to answer functional related clinical questions. The CMS Assessment answer list LL4309-2 provides possible values for this extension.</t>
   </si>
   <si>
     <t>Observation.modifierExtension</t>
@@ -707,7 +707,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group|Device|Location)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient)
 </t>
   </si>
   <si>
@@ -856,7 +856,7 @@
 </t>
   </si>
   <si>
-    <t>The person who performed the assessment.</t>
+    <t>The person who performed the assessment. The preferred way to specify the performer is to use the PractitionerRole resource to provide both the practitioner and organization.</t>
   </si>
   <si>
     <t>Who was responsible for asserting the observed value as "true".</t>
@@ -880,11 +880,7 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
-    <t>Quantity
-CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
-  </si>
-  <si>
-    <t>Actual result</t>
+    <t>Text summary of the prior level of function for the patient.</t>
   </si>
   <si>
     <t>The information determined as a result of making the observation, if the information has a simple value.</t>
@@ -894,6 +890,9 @@
   </si>
   <si>
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
+  </si>
+  <si>
+    <t>Text summary of the prior level of function for the patient. (Strongly encouraged until more structured method is established)</t>
   </si>
   <si>
     <t xml:space="preserve">obs-7
@@ -1386,6 +1385,10 @@
   </si>
   <si>
     <t>Observation.component.value[x]</t>
+  </si>
+  <si>
+    <t>Quantity
+CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
     <t>Actual component result</t>
@@ -1587,7 +1590,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="67.91015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="163.79296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1600,7 +1603,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="63.703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="117.0234375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="50.40625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
@@ -2338,7 +2341,7 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>55</v>
@@ -4924,7 +4927,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>55</v>
@@ -4939,19 +4942,19 @@
         <v>56</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>45</v>
@@ -4979,7 +4982,7 @@
         <v>45</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>45</v>
+        <v>278</v>
       </c>
       <c r="Y29" t="s" s="2">
         <v>45</v>
@@ -7878,19 +7881,19 @@
         <v>56</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>274</v>
+        <v>435</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>45</v>
@@ -7957,7 +7960,7 @@
         <v>45</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>281</v>
@@ -7974,7 +7977,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8000,13 +8003,13 @@
         <v>167</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N55" t="s" s="2">
         <v>288</v>
@@ -8058,7 +8061,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8093,7 +8096,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8177,7 +8180,7 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -8212,7 +8215,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8238,10 +8241,10 @@
         <v>45</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>356</v>
@@ -8296,7 +8299,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
